--- a/meetingDocs/codexMeetingNotes.xlsx
+++ b/meetingDocs/codexMeetingNotes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindycheng/Dropbox/Documents/Papers/Codex/MeetingDocumentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cindycheng/Documents/Papers/Codex/meetingDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="30300" windowHeight="25820" tabRatio="500"/>
+    <workbookView xWindow="21520" yWindow="1880" windowWidth="30300" windowHeight="25820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -413,6 +413,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>43447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
